--- a/biology/Médecine/Réflexe/Réflexe.xlsx
+++ b/biology/Médecine/Réflexe/Réflexe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe</t>
+          <t>Réflexe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un réflexe est une réponse musculaire involontaire, stéréotypée et très rapide à un stimulus.
 Une activité réflexe est produite par un « arc réflexe », le mécanisme de réponse intégrée d'un centre nerveux sans intervention du cerveau et de la volonté consciente. Les réflexes sont souvent des réactions de défense, comme le retrait du membre en cas de brûlure, avant que le cerveau ait perçu la douleur. Les réactions réflexes ont pour but de rétablir l'homéostasie.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe</t>
+          <t>Réflexe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'un stimulus, appelant une réponse immédiate, est perçu par un récepteur logé dans une partie du corps, l'influx nerveux se propage sur les fibres afférentes vers la moelle épinière (r. spinal) ou le tronc cérébral (r. bulbaire). Après le passage par une (r. monosynaptique) ou plusieurs synapses des neurones moteurs (r. métamérique, système nerveux périphérique), la réponse afférente — sous la forme d'un second influx nerveux — part vers l'organe effecteur (muscle par exemple) ou vers les centres moteurs, supérieurs ou inférieurs (noyaux médullaires de la moelle épinière ou noyaux centraux, tonus musculaire du cervelet, conscience du cortex, etc.).
 Cette boucle récepteur-afférence-SNC-efférence-effecteur constitue l'« arc réflexe » le plus court. L'« arc réflexe » est le trajet suivi par les messages nerveux depuis le récepteur jusqu'à l'effecteur. Un arc réflexe n'est jamais modifiable par la volonté de l'individu : c'est la « loi du tout ou rien ».
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe</t>
+          <t>Réflexe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +561,15 @@
           <t>Réflexes et diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les réflexes sont parfois stimulés à des fins de diagnostic, notamment dans le bilan neurologique ; chaque réflexe correspond à une zone de la moelle épinière.
 Tête :
 réflexes pupillaires : les pupilles se dilatent (mydriase) dans l'obscurité et se contractent (myosis) à la lumière ; normalement, elles demeurent symétriques même si l'éclairage est asymétrique ;
 Le réflexe naso-palpébral : fermeture des paupières à la percussion de la racine du nez ;
-Le réflexe d'ouverture de la mandibule[1].
+Le réflexe d'ouverture de la mandibule.
 Membres supérieurs :
 réaction à la douleur dans l'échelle de Glasgow ;
 réflexe bicipital : percussion du tendon du biceps légèrement au-dessus du coude (racines C5 et C6) ;
